--- a/Cybersecurity.xlsx
+++ b/Cybersecurity.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="63">
   <si>
     <t>Patient</t>
   </si>
@@ -203,6 +203,27 @@
   </si>
   <si>
     <t>disp(['Key: ' mat2str(Key)])</t>
+  </si>
+  <si>
+    <t>1965-11-05</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>1973-10-13</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1965-12-15</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -578,7 +599,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137F12A1-D8EC-4A1F-8B8B-765A586D9088}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:D3"/>
@@ -593,63 +614,87 @@
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>24051</v>
-      </c>
-      <c r="C3" s="1">
-        <v>26950</v>
-      </c>
-      <c r="D3" s="1">
-        <v>24091</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -663,7 +708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>14</v>
       </c>
